--- a/data/trans_dic/IP28_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP28_R-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>2,68%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
-      </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>3,3%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,51</t>
+          <t>0; 5,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,8</t>
+          <t>0,0; 21,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,83</t>
+          <t>0; 7,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,86</t>
+          <t>0,0; 18,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,88</t>
+          <t>0; 6,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,68</t>
+          <t>0; 8,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,79</t>
+          <t>0; 8,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>0,0; 14,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,8</t>
+          <t>0; 3,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,21</t>
+          <t>0,0; 13,69</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,94</t>
+          <t>0; 3,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,5</t>
+          <t>0,0; 10,73</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>0,56%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,23</t>
+          <t>0,57; 3,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,74</t>
+          <t>0,66; 3,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,44</t>
+          <t>0,32; 2,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,57</t>
+          <t>0,29; 2,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,01</t>
+          <t>0,67; 3,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,84</t>
+          <t>0,0; 1,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,45</t>
+          <t>0,31; 2,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,57</t>
+          <t>0; 0,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,32</t>
+          <t>0,82; 2,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,57</t>
+          <t>0,49; 2,21</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,42</t>
+          <t>0,33; 1,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,59</t>
+          <t>0,17; 1,5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>1,93%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>0,48; 4,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,51</t>
+          <t>0,0; 2,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>0,4; 3,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,34</t>
+          <t>0,26; 3,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>0,0; 3,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>0,42; 4,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,7</t>
+          <t>0,99; 5,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>0,47; 2,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,69</t>
+          <t>0,41; 2,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>0,4; 2,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,73</t>
+          <t>0,86; 3,66</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,21%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,53</t>
+          <t>0,0; 2,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,37</t>
+          <t>0,65; 3,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,35</t>
+          <t>0,0; 2,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,8</t>
+          <t>0,0; 2,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,06</t>
+          <t>0,48; 4,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,15</t>
+          <t>1,97; 6,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,09</t>
+          <t>0,38; 3,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 5,75</t>
+          <t>0,46; 4,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,84</t>
+          <t>0,38; 2,32</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,5</t>
+          <t>1,7; 4,57</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,36</t>
+          <t>0,37; 2,42</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,66</t>
+          <t>0,34; 2,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP28_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP28_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,51</t>
+          <t>0,0; 23,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,69</t>
+          <t>0,0; 12,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,86</t>
+          <t>0,0; 4,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,17</t>
+          <t>0,54; 4,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,7</t>
+          <t>0,0; 4,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,73</t>
+          <t>0,0; 2,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,35</t>
+          <t>0,0; 3,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,62</t>
+          <t>0,68; 6,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,92</t>
+          <t>0,0; 3,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,46</t>
+          <t>0,0; 6,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,61</t>
+          <t>0,27; 2,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,23</t>
+          <t>0,91; 4,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,71</t>
+          <t>0,33; 3,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,19</t>
+          <t>0,29; 3,29</t>
         </is>
       </c>
     </row>
@@ -1004,37 +1004,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,51</t>
+          <t>0,34; 3,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,8</t>
+          <t>0,63; 3,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,83</t>
+          <t>0,32; 2,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,86</t>
+          <t>0,29; 2,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,88</t>
+          <t>0,66; 3,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,68</t>
+          <t>0,0; 1,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,79</t>
+          <t>0,31; 2,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,22 +1044,22 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,8</t>
+          <t>0,79; 2,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,21</t>
+          <t>0,5; 2,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,94</t>
+          <t>0,34; 2,1</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,5</t>
+          <t>0,17; 1,52</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,53</t>
+          <t>0,49; 4,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,37</t>
+          <t>0,0; 2,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,35</t>
+          <t>0,4; 3,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,8</t>
+          <t>0,27; 3,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,06</t>
+          <t>0,0; 2,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,15</t>
+          <t>0,42; 3,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,09</t>
+          <t>0,0; 2,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 5,75</t>
+          <t>0,87; 6,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,84</t>
+          <t>0,48; 2,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,5</t>
+          <t>0,41; 2,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,36</t>
+          <t>0,38; 2,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,66</t>
+          <t>0,84; 3,75</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,23</t>
+          <t>0,0; 1,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,74</t>
+          <t>0,66; 3,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,44</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,57</t>
+          <t>0,0; 2,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,01</t>
+          <t>0,38; 3,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,84</t>
+          <t>1,84; 6,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,45</t>
+          <t>0,38; 3,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,57</t>
+          <t>0,47; 4,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,32</t>
+          <t>0,52; 2,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,57</t>
+          <t>1,61; 4,54</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,42</t>
+          <t>0,52; 2,24</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,59</t>
+          <t>0,45; 2,78</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,99</t>
+          <t>0,65; 2,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,63</t>
+          <t>0,99; 2,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,73</t>
+          <t>0,5; 1,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,78</t>
+          <t>0,52; 1,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,17</t>
+          <t>0,74; 2,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,03</t>
+          <t>1,27; 3,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,81</t>
+          <t>0,51; 1,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,59</t>
+          <t>0,72; 2,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,83; 1,81</t>
+          <t>0,86; 1,8</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,59</t>
+          <t>1,29; 2,5</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,62; 1,55</t>
+          <t>0,64; 1,51</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,77; 1,85</t>
+          <t>0,78; 1,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP28_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP28_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,84</t>
+          <t>0,0; 23,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,34</t>
+          <t>0,0; 19,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,7</t>
+          <t>0,0; 17,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,33</t>
+          <t>0,0; 10,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,73</t>
+          <t>0,0; 10,6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,04</t>
+          <t>0,0; 3,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,71</t>
+          <t>0,54; 4,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,09</t>
+          <t>0,0; 4,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,49 +884,49 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,85</t>
+          <t>0,0; 3,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,52</t>
+          <t>0,65; 6,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,46</t>
+          <t>0,0; 2,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,39</t>
+          <t>0,0; 5,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,66</t>
+          <t>0,31; 2,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,04</t>
+          <t>0,92; 4,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,03</t>
+          <t>0,33; 2,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,29</t>
+          <t>0,27; 3,16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,47</t>
+          <t>0,61; 3,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,61</t>
+          <t>0,63; 3,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,68</t>
+          <t>0,32; 2,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,68</t>
+          <t>0,3; 3,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,7</t>
+          <t>0,34; 3,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,83</t>
+          <t>0,0; 1,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1044,29 +1044,29 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,88</t>
+          <t>0,8; 2,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,29</t>
+          <t>0,49; 2,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,1</t>
+          <t>0,33; 2,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,52</t>
+          <t>0,17; 1,63</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,35</t>
+          <t>0,48; 4,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,75</t>
+          <t>0,0; 2,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,37</t>
+          <t>0,4; 3,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,97</t>
+          <t>0,24; 3,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,83</t>
+          <t>0,0; 2,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,63</t>
+          <t>0,41; 3,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,66</t>
+          <t>0,0; 2,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 6,14</t>
+          <t>1,0; 5,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,7</t>
+          <t>0,59; 3,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,46</t>
+          <t>0,41; 2,55</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,29</t>
+          <t>0,39; 2,32</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,75</t>
+          <t>0,87; 3,71</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,98</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,67</t>
+          <t>0,64; 3,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,28</t>
+          <t>0,0; 2,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,91</t>
+          <t>0,0; 2,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,78</t>
+          <t>0,38; 3,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 6,38</t>
+          <t>1,99; 7,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,38</t>
+          <t>0,38; 3,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,53</t>
+          <t>0,46; 4,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,36</t>
+          <t>0,41; 2,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,54</t>
+          <t>1,68; 4,58</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,24</t>
+          <t>0,39; 2,39</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,78</t>
+          <t>0,42; 2,69</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,01</t>
+          <t>0,66; 2,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,59</t>
+          <t>0,97; 2,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,78</t>
+          <t>0,5; 1,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,77</t>
+          <t>0,51; 1,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,21</t>
+          <t>0,73; 2,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,2</t>
+          <t>1,24; 3,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,79</t>
+          <t>0,55; 1,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,53</t>
+          <t>0,82; 2,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,86; 1,8</t>
+          <t>0,81; 1,8</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,5</t>
+          <t>1,26; 2,48</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,64; 1,51</t>
+          <t>0,63; 1,49</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,89</t>
+          <t>0,8; 1,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP28_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP28_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>1,44%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>0,0; 2,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,98</t>
+          <t>0,57; 5,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>0,0; 2,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,73</t>
+          <t>0,4; 5,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>0,0; 3,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>0,53; 5,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>0,0; 3,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,67</t>
+          <t>0,0; 3,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>0,22; 2,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,21</t>
+          <t>1,04; 4,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>0,27; 2,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,6</t>
+          <t>0,44; 3,37</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1,89%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,99%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,96%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,17%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>0,55%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,09%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,62%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,69%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>1,87%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1,12%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>2,18%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>1,02%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>1,18%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,5</t>
+          <t>0,67; 3,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,27</t>
+          <t>0,0; 1,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,76</t>
+          <t>0,31; 2,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,84</t>
+          <t>0; 0,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,31</t>
+          <t>0,57; 3,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 6,17</t>
+          <t>0,66; 3,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,82</t>
+          <t>0,32; 2,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,82</t>
+          <t>0,28; 2,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,85</t>
+          <t>0,82; 2,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,26</t>
+          <t>0,49; 2,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,72</t>
+          <t>0,33; 1,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,16</t>
+          <t>0,16; 1,46</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>1,79%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,5</t>
+          <t>0,0; 3,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,78</t>
+          <t>0,42; 4,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,66</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,03</t>
+          <t>0,81; 5,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,67</t>
+          <t>0,48; 4,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,82</t>
+          <t>0,0; 2,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,63</t>
+          <t>0,4; 3,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>0,27; 3,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,78</t>
+          <t>0,47; 2,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,36</t>
+          <t>0,41; 2,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,13</t>
+          <t>0,4; 2,36</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,63</t>
+          <t>0,8; 3,55</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>0,7%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>0,77%</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2,6%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,21%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,57</t>
+          <t>0,48; 4,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,79</t>
+          <t>1,97; 6,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,55</t>
+          <t>0,38; 3,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 3,68</t>
+          <t>0,46; 4,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,68</t>
+          <t>0,0; 2,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,74</t>
+          <t>0,65; 3,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,7</t>
+          <t>0,0; 2,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 5,88</t>
+          <t>0,0; 2,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,0</t>
+          <t>0,38; 2,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,55</t>
+          <t>1,7; 4,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,32</t>
+          <t>0,37; 2,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,71</t>
+          <t>0,33; 2,58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,2%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,28</t>
+          <t>0,69; 2,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,67</t>
+          <t>1,16; 3,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,13</t>
+          <t>0,49; 1,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,6</t>
+          <t>0,72; 2,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,87</t>
+          <t>0,65; 1,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 7,27</t>
+          <t>0,97; 2,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,75</t>
+          <t>0,58; 1,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,79</t>
+          <t>0,51; 1,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,36</t>
+          <t>0,83; 1,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,58</t>
+          <t>1,34; 2,59</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,39</t>
+          <t>0,62; 1,55</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,69</t>
+          <t>0,75; 1,78</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,23%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,66%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,99%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1,32%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>2,02%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1,01%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,48%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>1,27%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>1,83%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>1,0%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>1,22%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,66; 2,02</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 2,57</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,5; 1,77</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,51; 1,77</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 2,2</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1,24; 3,22</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,55; 1,82</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 2,58</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,81; 1,8</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>1,26; 2,48</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 1,49</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0,8; 1,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
